--- a/raw-data-prep/raw_data/digits_CN.xlsx
+++ b/raw-data-prep/raw_data/digits_CN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8145"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>L_ring_length</t>
   </si>
@@ -51,9 +51,6 @@
     <t>There were two scans for this pair. Pair one looked fine to me, but values for 14-2 are: LR: 863.9, 79.33; LI: 805.6, 70.42; RI: 800.8,78.98; RR: 871.8, 87.57</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Moved L_index finger during scan</t>
   </si>
   <si>
@@ -72,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,7 +197,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,11 +406,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K450"/>
+  <dimension ref="A1:J450"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I452" sqref="I452"/>
+      <pane ySplit="1" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J406" sqref="J406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +425,7 @@
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -460,7 +457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -489,7 +486,7 @@
         <v>88.51</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -518,7 +515,7 @@
         <v>88.04</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -547,7 +544,7 @@
         <v>86.29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -576,7 +573,7 @@
         <v>87.84</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -605,7 +602,7 @@
         <v>86.07</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -634,7 +631,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -663,7 +660,7 @@
         <v>82.24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -692,7 +689,7 @@
         <v>88.53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -721,7 +718,7 @@
         <v>89.37</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -750,7 +747,7 @@
         <v>82.17</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -779,7 +776,7 @@
         <v>88.43</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -808,7 +805,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -837,7 +834,7 @@
         <v>85.05</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -868,11 +865,8 @@
       <c r="J15" t="s">
         <v>10</v>
       </c>
-      <c r="K15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1365,7 +1359,7 @@
         <v>89.86</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1394,7 +1388,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1423,7 +1417,7 @@
         <v>85.55</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1452,7 +1446,7 @@
         <v>87.83</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1481,7 +1475,7 @@
         <v>88.01</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1510,7 +1504,7 @@
         <v>89.22</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1539,7 +1533,7 @@
         <v>88.3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1568,7 +1562,7 @@
         <v>82.83</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1597,13 +1591,10 @@
         <v>87.58</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
-      </c>
-      <c r="K40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1632,7 +1623,7 @@
         <v>82.37</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1661,7 +1652,7 @@
         <v>85.02</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1690,7 +1681,7 @@
         <v>86.05</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1719,7 +1710,7 @@
         <v>88.93</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1748,7 +1739,7 @@
         <v>84.16</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1777,7 +1768,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1806,7 +1797,7 @@
         <v>88.27</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6475,7 +6466,7 @@
         <v>85.46</v>
       </c>
     </row>
-    <row r="209" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -6504,7 +6495,7 @@
         <v>87.86</v>
       </c>
     </row>
-    <row r="210" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -6533,13 +6524,10 @@
         <v>83.59</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K210" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -6568,13 +6556,10 @@
         <v>77.7</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K211" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -6603,13 +6588,10 @@
         <v>89.61</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K212" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -6638,7 +6620,7 @@
         <v>84.43</v>
       </c>
     </row>
-    <row r="214" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -6667,7 +6649,7 @@
         <v>88.34</v>
       </c>
     </row>
-    <row r="215" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -6696,7 +6678,7 @@
         <v>83.39</v>
       </c>
     </row>
-    <row r="216" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -6725,7 +6707,7 @@
         <v>84.58</v>
       </c>
     </row>
-    <row r="217" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -6754,7 +6736,7 @@
         <v>87.33</v>
       </c>
     </row>
-    <row r="218" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -6783,7 +6765,7 @@
         <v>82.26</v>
       </c>
     </row>
-    <row r="219" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -6812,7 +6794,7 @@
         <v>83.22</v>
       </c>
     </row>
-    <row r="220" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -6841,7 +6823,7 @@
         <v>84.14</v>
       </c>
     </row>
-    <row r="221" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -6870,7 +6852,7 @@
         <v>89.37</v>
       </c>
     </row>
-    <row r="222" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -6899,7 +6881,7 @@
         <v>83.05</v>
       </c>
     </row>
-    <row r="223" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -6928,7 +6910,7 @@
         <v>87.95</v>
       </c>
     </row>
-    <row r="224" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -6957,7 +6939,7 @@
         <v>83.47</v>
       </c>
     </row>
-    <row r="225" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -6986,7 +6968,7 @@
         <v>87.24</v>
       </c>
     </row>
-    <row r="226" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -7015,9 +6997,9 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B227">
         <v>887.3</v>
@@ -7044,13 +7026,10 @@
         <v>81.8</v>
       </c>
       <c r="J227" t="s">
-        <v>16</v>
-      </c>
-      <c r="K227" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -7079,7 +7058,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="229" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -7108,7 +7087,7 @@
         <v>85.3</v>
       </c>
     </row>
-    <row r="230" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -7137,7 +7116,7 @@
         <v>85.89</v>
       </c>
     </row>
-    <row r="231" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -7166,7 +7145,7 @@
         <v>79.180000000000007</v>
       </c>
     </row>
-    <row r="232" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -7195,7 +7174,7 @@
         <v>81.67</v>
       </c>
     </row>
-    <row r="233" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -7224,7 +7203,7 @@
         <v>84.9</v>
       </c>
     </row>
-    <row r="234" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -7253,7 +7232,7 @@
         <v>83.59</v>
       </c>
     </row>
-    <row r="235" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -7282,7 +7261,7 @@
         <v>87.85</v>
       </c>
     </row>
-    <row r="236" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -7311,7 +7290,7 @@
         <v>83.38</v>
       </c>
     </row>
-    <row r="237" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -7340,7 +7319,7 @@
         <v>88.3</v>
       </c>
     </row>
-    <row r="238" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -7369,7 +7348,7 @@
         <v>84.83</v>
       </c>
     </row>
-    <row r="239" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -7398,7 +7377,7 @@
         <v>82.07</v>
       </c>
     </row>
-    <row r="240" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -12098,7 +12077,7 @@
         <v>83.41</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -12127,7 +12106,7 @@
         <v>86.85</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -12156,7 +12135,7 @@
         <v>85.31</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -12185,7 +12164,7 @@
         <v>85.69</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -12214,7 +12193,7 @@
         <v>82.92</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -12244,7 +12223,7 @@
       </c>
       <c r="J405" s="1"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -12273,13 +12252,10 @@
         <v>86.06</v>
       </c>
       <c r="J406" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K406" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -12309,7 +12285,7 @@
       </c>
       <c r="J407" s="1"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -12339,7 +12315,7 @@
       </c>
       <c r="J408" s="1"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -12369,7 +12345,7 @@
       </c>
       <c r="J409" s="1"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -12399,7 +12375,7 @@
       </c>
       <c r="J410" s="1"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -12429,7 +12405,7 @@
       </c>
       <c r="J411" s="1"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -12459,7 +12435,7 @@
       </c>
       <c r="J412" s="1"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -12489,7 +12465,7 @@
       </c>
       <c r="J413" s="1"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -12519,7 +12495,7 @@
       </c>
       <c r="J414" s="1"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -12549,7 +12525,7 @@
       </c>
       <c r="J415" s="1"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
